--- a/spreadsheet-normalizer/testdata.xlsx
+++ b/spreadsheet-normalizer/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiji\OneDrive - The University of Hong Kong\桌面\新建文件夹\HKU\fyp\FYP2025_Ian\spreadsheet-normalizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44344891-E3F4-4D02-A848-DD45732DA987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998544C-C2E7-4689-9ED8-2548C38E385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,12 +496,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -807,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3388,7 +3389,7 @@
       <c r="G112" t="s">
         <v>12</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="3">
         <v>355</v>
       </c>
     </row>
@@ -4653,7 +4654,7 @@
       <c r="G167" t="s">
         <v>12</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="3">
         <v>363</v>
       </c>
     </row>
@@ -5918,7 +5919,7 @@
       <c r="G222" t="s">
         <v>12</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="3">
         <v>344</v>
       </c>
     </row>
@@ -7183,7 +7184,7 @@
       <c r="G277" t="s">
         <v>12</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="3">
         <v>248</v>
       </c>
     </row>
@@ -8448,7 +8449,7 @@
       <c r="G332" t="s">
         <v>12</v>
       </c>
-      <c r="H332">
+      <c r="H332" s="3">
         <v>271</v>
       </c>
     </row>
@@ -9710,10 +9711,10 @@
       <c r="F387" t="s">
         <v>11</v>
       </c>
-      <c r="G387" t="s">
+      <c r="G387" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H387">
+      <c r="H387" s="3">
         <v>257</v>
       </c>
     </row>
@@ -10978,7 +10979,7 @@
       <c r="G442" t="s">
         <v>12</v>
       </c>
-      <c r="H442">
+      <c r="H442" s="3">
         <v>399</v>
       </c>
     </row>
@@ -12243,7 +12244,7 @@
       <c r="G497" t="s">
         <v>12</v>
       </c>
-      <c r="H497">
+      <c r="H497" s="3">
         <v>400</v>
       </c>
     </row>
@@ -13508,7 +13509,7 @@
       <c r="G552" t="s">
         <v>12</v>
       </c>
-      <c r="H552">
+      <c r="H552" s="3">
         <v>359</v>
       </c>
     </row>
@@ -14773,7 +14774,7 @@
       <c r="G607" t="s">
         <v>12</v>
       </c>
-      <c r="H607">
+      <c r="H607" s="3">
         <v>389</v>
       </c>
     </row>
@@ -16038,7 +16039,7 @@
       <c r="G662" t="s">
         <v>12</v>
       </c>
-      <c r="H662">
+      <c r="H662" s="3">
         <v>355</v>
       </c>
     </row>
@@ -17303,7 +17304,7 @@
       <c r="G717" t="s">
         <v>12</v>
       </c>
-      <c r="H717">
+      <c r="H717" s="3">
         <v>340</v>
       </c>
     </row>
@@ -18568,7 +18569,7 @@
       <c r="G772" t="s">
         <v>12</v>
       </c>
-      <c r="H772">
+      <c r="H772" s="3">
         <v>331</v>
       </c>
     </row>
@@ -19833,7 +19834,7 @@
       <c r="G827" t="s">
         <v>12</v>
       </c>
-      <c r="H827">
+      <c r="H827" s="3">
         <v>331</v>
       </c>
     </row>
@@ -21101,7 +21102,7 @@
       <c r="G882" t="s">
         <v>12</v>
       </c>
-      <c r="H882">
+      <c r="H882" s="3">
         <v>265</v>
       </c>
     </row>
@@ -21309,7 +21310,7 @@
       <c r="G890" t="s">
         <v>12</v>
       </c>
-      <c r="H890">
+      <c r="H890" s="3">
         <v>59</v>
       </c>
     </row>
@@ -23961,7 +23962,7 @@
       <c r="G992" t="s">
         <v>12</v>
       </c>
-      <c r="H992">
+      <c r="H992" s="3">
         <v>190</v>
       </c>
     </row>
@@ -24169,7 +24170,7 @@
       <c r="G1000" t="s">
         <v>12</v>
       </c>
-      <c r="H1000">
+      <c r="H1000" s="3">
         <v>56</v>
       </c>
     </row>
@@ -26821,7 +26822,7 @@
       <c r="G1102" t="s">
         <v>12</v>
       </c>
-      <c r="H1102">
+      <c r="H1102" s="3">
         <v>182</v>
       </c>
     </row>
@@ -27029,7 +27030,7 @@
       <c r="G1110" t="s">
         <v>12</v>
       </c>
-      <c r="H1110">
+      <c r="H1110" s="3">
         <v>48</v>
       </c>
     </row>
@@ -29681,7 +29682,7 @@
       <c r="G1212" t="s">
         <v>12</v>
       </c>
-      <c r="H1212">
+      <c r="H1212" s="3">
         <v>152</v>
       </c>
     </row>
@@ -29889,7 +29890,7 @@
       <c r="G1220" t="s">
         <v>12</v>
       </c>
-      <c r="H1220">
+      <c r="H1220" s="3">
         <v>59</v>
       </c>
     </row>
